--- a/country_excel/Province.xlsx
+++ b/country_excel/Province.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\github\order\country_excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="province" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>省份</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
   <si>
     <t>北京市</t>
   </si>
@@ -109,22 +111,246 @@
   </si>
   <si>
     <t>新疆维吾尔</t>
+  </si>
+  <si>
+    <t>Henan</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shanxi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anhui</t>
+  </si>
+  <si>
+    <t>Gansu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chongqing</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fujian</t>
+  </si>
+  <si>
+    <t>Guangdong</t>
+  </si>
+  <si>
+    <t>Guangxi</t>
+  </si>
+  <si>
+    <t>Guizhou</t>
+  </si>
+  <si>
+    <t>Heilongjiang</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hubei</t>
+  </si>
+  <si>
+    <t>Hunan</t>
+  </si>
+  <si>
+    <t>Jilin</t>
+  </si>
+  <si>
+    <t>Liaoning</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inner mongolia</t>
+  </si>
+  <si>
+    <t>Ningxia</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qinghai</t>
+  </si>
+  <si>
+    <t>Hebei</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shaanxi</t>
+  </si>
+  <si>
+    <t>Shandong</t>
+  </si>
+  <si>
+    <t>Tianjin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xinjiang</t>
+  </si>
+  <si>
+    <t>Yunnan</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Hainan</t>
+  </si>
+  <si>
+    <t>Zhejiang</t>
+  </si>
+  <si>
+    <t>Jiangsu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiangxi</t>
+  </si>
+  <si>
+    <t>Sichuan</t>
+  </si>
+  <si>
+    <t>山西</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>海南</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>云南</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>青海</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁夏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,6 +382,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,19 +412,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -202,6 +440,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -250,7 +491,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,9 +524,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,6 +576,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -494,263 +769,624 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B31"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1">
+        <v>40.253900000000002</v>
+      </c>
+      <c r="F1">
+        <v>116.4551</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2">
+        <v>39.418900000000001</v>
+      </c>
+      <c r="F2">
+        <v>117.42189999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3">
+        <v>37.968800000000002</v>
+      </c>
+      <c r="F3">
+        <v>115.4004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4">
+        <v>37.661099999999998</v>
+      </c>
+      <c r="F4">
+        <v>112.4121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>44.340800000000002</v>
+      </c>
+      <c r="F5">
+        <v>117.5977</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6">
+        <v>41.088900000000002</v>
+      </c>
+      <c r="F6">
+        <v>122.3438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7">
+        <v>43.593800000000002</v>
+      </c>
+      <c r="F7">
+        <v>126.4746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8">
+        <v>48.515599999999999</v>
+      </c>
+      <c r="F8">
+        <v>128.14449999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9">
+        <v>31.289100000000001</v>
+      </c>
+      <c r="F9">
+        <v>121.4648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10">
+        <v>32.914999999999999</v>
+      </c>
+      <c r="F10">
+        <v>120.0586</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11">
+        <v>29.091799999999999</v>
+      </c>
+      <c r="F11">
+        <v>120.498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12">
+        <v>32.036099999999998</v>
+      </c>
+      <c r="F12">
+        <v>117.2461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13">
+        <v>25.927700000000002</v>
+      </c>
+      <c r="F13">
+        <v>118.3008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14">
+        <v>27.29</v>
+      </c>
+      <c r="F14">
+        <v>116.01560000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15">
+        <v>36.430700000000002</v>
+      </c>
+      <c r="F15">
+        <v>118.7402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16">
+        <v>33.881799999999998</v>
+      </c>
+      <c r="F16">
+        <v>113.46680000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17">
+        <v>31.1572</v>
+      </c>
+      <c r="F17">
+        <v>112.2363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18">
+        <v>27.3779</v>
+      </c>
+      <c r="F18">
+        <v>111.53319999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19">
+        <v>22.807600000000001</v>
+      </c>
+      <c r="F19">
+        <v>113.46680000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20">
+        <v>23.642600000000002</v>
+      </c>
+      <c r="F20">
+        <v>108.2813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21">
+        <v>19.2041</v>
+      </c>
+      <c r="F21">
+        <v>109.9512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22">
+        <v>30.1904</v>
+      </c>
+      <c r="F22">
+        <v>107.7539</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23">
+        <v>30.1904</v>
+      </c>
+      <c r="F23">
+        <v>102.9199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24">
+        <v>26.938500000000001</v>
+      </c>
+      <c r="F24">
+        <v>106.6113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25">
+        <v>25.180700000000002</v>
+      </c>
+      <c r="F25">
+        <v>101.8652</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26">
+        <v>35.639600000000002</v>
+      </c>
+      <c r="F26">
+        <v>109.5996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27">
+        <v>40.165999999999997</v>
+      </c>
+      <c r="F27">
+        <v>95.712900000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28">
+        <v>35.419899999999998</v>
+      </c>
+      <c r="F28">
+        <v>96.240200000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29">
+        <v>37.309600000000003</v>
+      </c>
+      <c r="F29">
+        <v>105.9961</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>30</v>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30">
+        <v>41.747999999999998</v>
+      </c>
+      <c r="F30">
+        <v>84.902299999999997</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -762,7 +1398,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -775,7 +1411,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/country_excel/Province.xlsx
+++ b/country_excel/Province.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\github\order\country_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzy\Documents\GitHub\order\country_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="province" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
   <si>
     <t>北京市</t>
   </si>
@@ -114,22 +114,22 @@
   </si>
   <si>
     <t>Henan</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Shanxi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Anhui</t>
   </si>
   <si>
     <t>Gansu</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Chongqing</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Fujian</t>
@@ -145,7 +145,7 @@
   </si>
   <si>
     <t>Heilongjiang</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Hubei</t>
@@ -158,21 +158,21 @@
   </si>
   <si>
     <t>Liaoning</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Inner mongolia</t>
   </si>
   <si>
     <t>Ningxia</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Qinghai</t>
   </si>
   <si>
     <t>Hebei</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Shaanxi</t>
@@ -182,7 +182,7 @@
   </si>
   <si>
     <t>Tianjin</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Xinjiang</t>
@@ -201,7 +201,7 @@
   </si>
   <si>
     <t>Jiangsu</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Jiangxi</t>
@@ -211,139 +211,154 @@
   </si>
   <si>
     <t>山西</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>内蒙古</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>辽宁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>吉林</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>黑龙江</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>上海</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>江苏</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>浙江</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>安徽</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>福建</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>山东</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>江西</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>湖北</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>河南</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>湖南</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>广东</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>广西</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>海南</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>重庆</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>四川</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>贵州</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>云南</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>陕西</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>甘肃</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>青海</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>宁夏</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>新疆</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>北京</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>天津</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>河北</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tibet</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -412,28 +427,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 3" xfId="1"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -768,11 +785,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1383,35 +1400,55 @@
         <v>84.902299999999997</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>31</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31">
+        <v>31.68</v>
+      </c>
+      <c r="F31">
+        <v>88.76</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/country_excel/Province.xlsx
+++ b/country_excel/Province.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzy\Documents\GitHub\order\country_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\github\order\country_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="province" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
     <t>北京市</t>
   </si>
@@ -121,227 +121,232 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>Gansu</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chongqing</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fujian</t>
+  </si>
+  <si>
+    <t>Guangdong</t>
+  </si>
+  <si>
+    <t>Guangxi</t>
+  </si>
+  <si>
+    <t>Guizhou</t>
+  </si>
+  <si>
+    <t>Heilongjiang</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hubei</t>
+  </si>
+  <si>
+    <t>Hunan</t>
+  </si>
+  <si>
+    <t>Jilin</t>
+  </si>
+  <si>
+    <t>Liaoning</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inner mongolia</t>
+  </si>
+  <si>
+    <t>Ningxia</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qinghai</t>
+  </si>
+  <si>
+    <t>Hebei</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shaanxi</t>
+  </si>
+  <si>
+    <t>Shandong</t>
+  </si>
+  <si>
+    <t>Tianjin</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xinjiang</t>
+  </si>
+  <si>
+    <t>Yunnan</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Hainan</t>
+  </si>
+  <si>
+    <t>Zhejiang</t>
+  </si>
+  <si>
+    <t>Jiangsu</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiangxi</t>
+  </si>
+  <si>
+    <t>Sichuan</t>
+  </si>
+  <si>
+    <t>山西</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>海南</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>云南</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>青海</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁夏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tibet</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeiJing</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>Anhui</t>
-  </si>
-  <si>
-    <t>Gansu</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chongqing</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fujian</t>
-  </si>
-  <si>
-    <t>Guangdong</t>
-  </si>
-  <si>
-    <t>Guangxi</t>
-  </si>
-  <si>
-    <t>Guizhou</t>
-  </si>
-  <si>
-    <t>Heilongjiang</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hubei</t>
-  </si>
-  <si>
-    <t>Hunan</t>
-  </si>
-  <si>
-    <t>Jilin</t>
-  </si>
-  <si>
-    <t>Liaoning</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inner mongolia</t>
-  </si>
-  <si>
-    <t>Ningxia</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qinghai</t>
-  </si>
-  <si>
-    <t>Hebei</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shaanxi</t>
-  </si>
-  <si>
-    <t>Shandong</t>
-  </si>
-  <si>
-    <t>Tianjin</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xinjiang</t>
-  </si>
-  <si>
-    <t>Yunnan</t>
-  </si>
-  <si>
-    <t>Shanghai</t>
-  </si>
-  <si>
-    <t>Hainan</t>
-  </si>
-  <si>
-    <t>Zhejiang</t>
-  </si>
-  <si>
-    <t>Jiangsu</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiangxi</t>
-  </si>
-  <si>
-    <t>Sichuan</t>
-  </si>
-  <si>
-    <t>山西</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>内蒙古</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>辽宁</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>吉林</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑龙江</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>江苏</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>安徽</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>福建</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>江西</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖北</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>河南</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖南</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>广西</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>海南</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>重庆</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>四川</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵州</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>云南</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>陕西</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘肃</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>青海</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁夏</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>新疆</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>河北</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>西藏</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tibet</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -449,8 +454,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -785,11 +790,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -808,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E1">
         <v>40.253900000000002</v>
@@ -828,10 +833,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2">
         <v>39.418900000000001</v>
@@ -848,10 +853,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3">
         <v>37.968800000000002</v>
@@ -871,7 +876,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4">
         <v>37.661099999999998</v>
@@ -888,10 +893,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>44.340800000000002</v>
@@ -908,10 +913,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>41.088900000000002</v>
@@ -928,10 +933,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>43.593800000000002</v>
@@ -948,10 +953,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8">
         <v>48.515599999999999</v>
@@ -968,10 +973,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9">
         <v>31.289100000000001</v>
@@ -988,10 +993,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10">
         <v>32.914999999999999</v>
@@ -1008,10 +1013,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11">
         <v>29.091799999999999</v>
@@ -1028,10 +1033,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12">
         <v>32.036099999999998</v>
@@ -1048,10 +1053,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13">
         <v>25.927700000000002</v>
@@ -1068,10 +1073,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14">
         <v>27.29</v>
@@ -1088,10 +1093,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15">
         <v>36.430700000000002</v>
@@ -1111,7 +1116,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16">
         <v>33.881799999999998</v>
@@ -1128,10 +1133,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17">
         <v>31.1572</v>
@@ -1148,10 +1153,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18">
         <v>27.3779</v>
@@ -1168,10 +1173,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19">
         <v>22.807600000000001</v>
@@ -1188,10 +1193,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20">
         <v>23.642600000000002</v>
@@ -1208,10 +1213,10 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21">
         <v>19.2041</v>
@@ -1228,10 +1233,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22">
         <v>30.1904</v>
@@ -1248,10 +1253,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23">
         <v>30.1904</v>
@@ -1268,10 +1273,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E24">
         <v>26.938500000000001</v>
@@ -1288,10 +1293,10 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25">
         <v>25.180700000000002</v>
@@ -1308,10 +1313,10 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26">
         <v>35.639600000000002</v>
@@ -1328,10 +1333,10 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E27">
         <v>40.165999999999997</v>
@@ -1348,10 +1353,10 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E28">
         <v>35.419899999999998</v>
@@ -1368,10 +1373,10 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29">
         <v>37.309600000000003</v>
@@ -1388,10 +1393,10 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E30">
         <v>41.747999999999998</v>
@@ -1405,13 +1410,13 @@
         <v>31</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
         <v>89</v>
       </c>
-      <c r="C31" t="s">
-        <v>90</v>
-      </c>
       <c r="D31" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31">
         <v>31.68</v>
@@ -1428,7 +1433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1441,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
